--- a/data/trans_camb/P5_7-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_7-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-1,28</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,78</t>
+          <t>-6,01; 9,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 0,0</t>
+          <t>-9,46; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 1,43</t>
+          <t>-6,43; 2,63</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,42%</t>
+          <t>-2,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,72%</t>
+          <t>-1,29%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 5,04</t>
+          <t>-6,11; 10,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 0,0</t>
+          <t>-9,46; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 1,45</t>
+          <t>-6,53; 2,68</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,5</t>
+          <t>-16,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,84</t>
+          <t>-8,09</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 0,85</t>
+          <t>-52,02; 2,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,92; -0,18</t>
+          <t>-29,46; 0,95</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,93%</t>
+          <t>-16,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,96%</t>
+          <t>-8,16%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 0,88</t>
+          <t>-52,58; 1,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,48; -0,2</t>
+          <t>-29,71; 0,96</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,61</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,01</t>
+          <t>-7,09; 6,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 3,53</t>
+          <t>-6,62; 5,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,5</t>
+          <t>-4,68; 3,58</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>-0,63%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,2</t>
+          <t>-7,17; 7,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 3,76</t>
+          <t>-6,89; 5,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,6</t>
+          <t>-4,87; 3,81</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,12</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 5,27</t>
+          <t>-5,1; 4,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 2,82</t>
+          <t>-5,1; 4,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,89</t>
+          <t>-3,87; 3,63</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>-0,12%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 5,7</t>
+          <t>-5,12; 4,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 2,92</t>
+          <t>-5,29; 5,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 3,04</t>
+          <t>-3,95; 3,85</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 4,81</t>
+          <t>-7,14; 4,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,62</t>
+          <t>-3,02; 1,75</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,88%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>-0,1%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 2,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 5,23</t>
+          <t>-7,35; 4,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 2,75</t>
+          <t>-3,04; 1,78</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 3,24</t>
+          <t>-4,09; 6,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 2,63</t>
+          <t>-3,33; 3,19</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,12%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>-0,01%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 4,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,39</t>
+          <t>-4,11; 6,68</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 2,73</t>
+          <t>-3,34; 3,3</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,73</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 0,66</t>
+          <t>-12,64; 0,75</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,91</t>
+          <t>-2,55; 1,63</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,2</t>
+          <t>-6,98; 0,27</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,78%</t>
+          <t>-3,1%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>-0,6%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>-1,76%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 0,68</t>
+          <t>-12,74; 0,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,93</t>
+          <t>-2,59; 1,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,2</t>
+          <t>-7,11; 0,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_7-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_7-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,203 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.1998494723806199</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.349366371964523</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.272244631753561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; 9,4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,46; 0,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,43; 2,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.820001948550197</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.04770056202203</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.396572370521664</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,11%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,26%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,29%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.407501046807971</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.617384991066197</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,11; 10,45</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,46; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,53; 2,68</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.002061662532000194</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.02349366371964523</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.01288941598525968</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-16,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-8,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.05913762964275105</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1004770056202203</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.06513305734223593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-52,02; 2,1</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-29,46; 0,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.1050508241885572</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.02689582083322251</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-16,31%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-8,16%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-14.43171154366</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-7.659059218188691</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-52,58; 1,95</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-29,71; 0,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-46.25804614763037</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>-26.81940157613735</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.686906452289178</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>0.8200232985955966</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,09; 6,77</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,62; 5,01</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,68; 3,58</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.1470961718151106</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.07733061128572011</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,01%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,01%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,63%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.4683399062071132</v>
+      </c>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="n">
+        <v>-0.2686571736334389</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-7,17; 7,37</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-6,89; 5,3</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 3,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.01712504819475278</v>
+      </c>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="n">
+        <v>0.00817328748339099</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +767,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.02424651504304709</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.596269329204214</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.9685375764667881</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 4,71</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 4,74</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,87; 3,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-6.845050584197663</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-8.305303366235432</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-5.185554472000919</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0,11%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,13%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,12%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>6.921806209864346</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>4.092771499820556</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3.384817337815709</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-5,12; 4,72</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-5,29; 5,05</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-3,95; 3,85</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.0002512777507030429</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.01660682926332598</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.01006090122265845</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.06873524156691704</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.08721253187394655</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.05287722719156224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-7,14; 4,04</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; 1,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.0746913799733224</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.04348175165146516</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.03616888487020728</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,26%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,1%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.07492706099513358</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1589398590042368</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.0462131018989953</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-7,35; 4,21</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; 1,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.926754989303584</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.502867962063105</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.506081221323355</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.77832685320576</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.028188461493637</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.75428214324802</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 6,25</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-3,33; 3,19</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.000767891320542186</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.001652243336802804</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.0004772516865142845</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>0,04%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-0,01%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.04939085848792083</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.04575200907366902</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.03556849159465621</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 6,68</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 3,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.05040967561462906</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.05442441396194204</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.03971400357935836</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +979,299 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-3,05</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-1,73</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-0.2239450791381326</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-0.08900386890914325</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-12,64; 0,75</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-2,55; 1,63</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-6,98; 0,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr"/>
+      <c r="D29" s="5" t="n">
+        <v>-7.111525899793181</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-2.989854131116721</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-3,1%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-0,6%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-1,76%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr"/>
+      <c r="D30" s="5" t="n">
+        <v>4.040799945536443</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>1.748850290467707</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-12,74; 0,76</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 1,68</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 0,27</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.002285498819689594</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.0008977613731625515</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="inlineStr"/>
+      <c r="D32" s="6" t="n">
+        <v>-0.07276411084224294</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.03003234404132826</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr"/>
+      <c r="D33" s="6" t="n">
+        <v>0.04210943522799711</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.01778794097006519</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-0.01957023681794512</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>0.01022352289049566</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr"/>
+      <c r="D35" s="5" t="n">
+        <v>-6.44134774194862</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-2.173279383677061</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr"/>
+      <c r="D36" s="5" t="n">
+        <v>4.146367679907076</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>4.463813614884857</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.0001997367008146434</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.0001033679816265689</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr"/>
+      <c r="D38" s="6" t="n">
+        <v>-0.06485625525164775</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.02177796771851355</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="n">
+        <v>0.04350938591662313</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.04662706726209726</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-2.872724002563232</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-0.7365678896477212</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-1.734288698859698</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-10.5589277856783</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-3.027002181177944</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-5.687280014935356</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0.5964227152083847</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>1.417392010949976</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>0.1922133141965895</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.02927327232565118</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.007538292597259014</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.01771350773345224</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.1074108610456471</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.03073828491775389</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.05819320223356177</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.006100842389584017</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.01439529117119769</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.001932212144309666</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1279,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
